--- a/DesignerConfigs/Datas/role.xlsx
+++ b/DesignerConfigs/Datas/role.xlsx
@@ -78,9 +78,6 @@
     <t>##type</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -132,6 +129,10 @@
   </si>
   <si>
     <t>路人乙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +538,7 @@
   <dimension ref="A1:AF15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -637,13 +638,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -676,12 +677,12 @@
     </row>
     <row r="4" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -714,16 +715,16 @@
     </row>
     <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -759,10 +760,10 @@
         <v>20000</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="F6" s="5"/>
       <c r="H6" s="5"/>
@@ -773,10 +774,10 @@
         <v>20001</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="5"/>
       <c r="H7" s="5"/>

--- a/DesignerConfigs/Datas/role.xlsx
+++ b/DesignerConfigs/Datas/role.xlsx
@@ -24,30 +24,6 @@
     <t>##var</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -90,30 +66,6 @@
     <t>##</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>这是i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-  </si>
-  <si>
     <t>名字</t>
   </si>
   <si>
@@ -133,6 +85,14 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是key</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +498,7 @@
   <dimension ref="A1:AF15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -560,13 +520,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -635,16 +595,16 @@
     </row>
     <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -677,12 +637,12 @@
     </row>
     <row r="4" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -715,16 +675,16 @@
     </row>
     <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -760,10 +720,10 @@
         <v>20000</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="5"/>
       <c r="H6" s="5"/>
@@ -774,10 +734,10 @@
         <v>20001</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="5"/>
       <c r="H7" s="5"/>

--- a/DesignerConfigs/Datas/role.xlsx
+++ b/DesignerConfigs/Datas/role.xlsx
@@ -19,50 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>esc</t>
-    </r>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>##group</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
@@ -88,11 +55,47 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Key</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>key</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>这是key</t>
+    <t>(list#sep=,),string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具甲,道具乙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具甲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>路人甲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>路人乙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemList</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -495,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF15"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -507,7 +510,7 @@
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="13.125" customWidth="1"/>
     <col min="8" max="8" width="12.375" customWidth="1"/>
@@ -520,15 +523,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -557,19 +562,27 @@
       <c r="AE1"/>
       <c r="AF1"/>
     </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="7"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -593,25 +606,27 @@
       <c r="AE2"/>
       <c r="AF2"/>
     </row>
-    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="4"/>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="7"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -635,110 +650,46 @@
       <c r="AE3"/>
       <c r="AF3"/>
     </row>
-    <row r="4" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="7"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-    </row>
-    <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="E4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="7"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
+      <c r="D5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>20000</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" s="5"/>
       <c r="H6" s="5"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>20001</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>11</v>
-      </c>
       <c r="F7" s="5"/>
       <c r="H7" s="5"/>
       <c r="J7" s="5"/>
@@ -749,6 +700,7 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="C9" s="5"/>
       <c r="F9" s="5"/>
       <c r="H9" s="5"/>
       <c r="J9" s="5"/>
@@ -760,35 +712,24 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="F11" s="6"/>
       <c r="H11" s="5"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="F12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="F12" s="6"/>
       <c r="H12" s="5"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="5"/>
       <c r="H13" s="5"/>
       <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="J15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
